--- a/docs/ValueSet-2.16.840.1.113883.2.4.3.11.60.40.2.4.5.3--20171231000000.xlsx
+++ b/docs/ValueSet-2.16.840.1.113883.2.4.3.11.60.40.2.4.5.3--20171231000000.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: 2.16.840.1.113883.2.4.3.11.60.40.2.4.5.3 (use: OFFICIAL)</t>
+    <t>http://art-decor.org/ns/oids/vs#2.16.840.1.113883.2.4.3.11.60.40.2.4.5.3 (use: official)</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T13:17:30+02:00</t>
+    <t>2024-04-09T16:00:20+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Registratie aan de bron (https://www.registratieaandebron.nl, https://zibs.nl)</t>
   </si>
   <si>
     <t>Description</t>
